--- a/bin/TestData/VerifyRegistrationPage.xlsx
+++ b/bin/TestData/VerifyRegistrationPage.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
